--- a/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
+++ b/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\月夜の鎮魂歌\MoonlitRequiem\開発環境\MoonlitRequiem\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78367DFC-F702-47C3-A259-468946C2DD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7F39CF-30F1-48C0-B7A6-C37479DB2F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="5460" xr2:uid="{964291E5-3234-4E3D-A0D4-F3456EEF85F3}"/>
   </bookViews>
@@ -104,7 +104,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -143,209 +143,6 @@
           <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDot">
-          <color auto="1"/>
-        </left>
-        <right style="dashDot">
-          <color auto="1"/>
-        </right>
-        <top style="dashDot">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashDot">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
           <color auto="1"/>
         </bottom>
       </border>
@@ -662,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66AAB36-C14D-4C10-8A0F-D2B5A3308418}">
   <dimension ref="A1:CU99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:CU36"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1053,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1352,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1651,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1950,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2249,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2548,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2847,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -3146,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -3445,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -3744,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -4043,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -4342,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -4641,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -4704,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -4940,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -5003,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -5302,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -5589,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5888,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -6187,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6357,199 +6154,199 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20">
         <v>0</v>
@@ -6656,199 +6453,199 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO21">
         <v>0</v>
@@ -6955,199 +6752,199 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO22">
         <v>0</v>
@@ -7254,199 +7051,199 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23">
         <v>0</v>
@@ -7553,199 +7350,199 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO24">
         <v>0</v>
@@ -7852,199 +7649,199 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO25">
         <v>0</v>
@@ -8151,199 +7948,199 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO26">
         <v>0</v>
@@ -14729,121 +14526,121 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -15142,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -15441,7 +15238,7 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -15740,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -16039,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -16338,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -16637,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -16936,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -17235,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -17534,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -17833,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -18132,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -18431,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -18730,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -19029,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -19328,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -19627,7 +19424,7 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -19926,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -20225,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO66">
         <v>0</v>
@@ -20524,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -20823,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="AN68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -21122,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -21421,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -21720,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -22019,7 +21816,7 @@
         <v>0</v>
       </c>
       <c r="AN72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -22318,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -22617,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -22916,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -23215,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -23514,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -23813,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="AN78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -24112,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="AN79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO79">
         <v>0</v>
@@ -24411,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -24710,7 +24507,7 @@
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO81">
         <v>0</v>
@@ -25009,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO82">
         <v>0</v>
@@ -25308,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO83">
         <v>0</v>
@@ -25607,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO84">
         <v>0</v>
@@ -25906,7 +25703,7 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -26205,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -26504,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO87">
         <v>0</v>
@@ -26803,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO88">
         <v>0</v>
@@ -27102,7 +26899,7 @@
         <v>0</v>
       </c>
       <c r="AN89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO89">
         <v>0</v>
@@ -27401,7 +27198,7 @@
         <v>0</v>
       </c>
       <c r="AN90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO90">
         <v>0</v>
@@ -27700,7 +27497,7 @@
         <v>0</v>
       </c>
       <c r="AN91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO91">
         <v>0</v>
@@ -27999,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -28298,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -28597,7 +28394,7 @@
         <v>0</v>
       </c>
       <c r="AN94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO94">
         <v>0</v>
@@ -28896,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="AN95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -29195,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="AN96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO96">
         <v>0</v>
@@ -29494,7 +29291,7 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO97">
         <v>0</v>
@@ -29793,7 +29590,7 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -30335,16 +30132,6 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E657F2A2-5365-406F-8874-B157DBA6B9BC}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:CU99</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
   </extLst>
 </worksheet>
 </file>

--- a/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
+++ b/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\月夜の鎮魂歌\MoonlitRequiem\開発環境\MoonlitRequiem\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F98C01-7CCA-44B5-8CA9-F632ACE537AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4FC2C-2627-408B-8279-08F56AB377E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="5460" xr2:uid="{964291E5-3234-4E3D-A0D4-F3456EEF85F3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -88,6 +88,17 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +154,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -162,6 +173,13 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -477,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66AAB36-C14D-4C10-8A0F-D2B5A3308418}">
   <dimension ref="A1:DA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CM68" sqref="CM68"/>
+    <sheetView tabSelected="1" topLeftCell="AE47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BD79" sqref="BD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4418,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -6595,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -6682,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BF20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -6721,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BT20">
         <v>0</v>
@@ -8539,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -13743,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="CI42">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CJ42">
         <v>0</v>
@@ -17242,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CN53">
         <v>0</v>
@@ -21692,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="CQ67">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CR67">
         <v>0</v>
@@ -25074,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="BH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI78">
         <v>0</v>
@@ -25152,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="CH78">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CI78">
         <v>0</v>
@@ -25468,8 +25486,8 @@
       <c r="CG79">
         <v>11</v>
       </c>
-      <c r="CH79">
-        <v>11</v>
+      <c r="CH79" t="s">
+        <v>16</v>
       </c>
       <c r="CI79">
         <v>11</v>
@@ -35651,7 +35669,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="between" id="{FDBC52C9-74FE-460E-A81B-C55163FA45E1}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{44AE0833-385B-45AD-9CB3-48A7179A93EA}">
+            <xm:f>Sheet2!$E$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="between" id="{FDBC52C9-74FE-460E-A81B-C55163FA45E1}">
             <xm:f>Sheet2!$B$4</xm:f>
             <xm:f>Sheet2!$B$5</xm:f>
             <x14:dxf>
@@ -35662,7 +35690,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="between" id="{375F971A-5F06-4950-90B8-EEA1A5D09C3F}">
+          <x14:cfRule type="cellIs" priority="3" operator="between" id="{375F971A-5F06-4950-90B8-EEA1A5D09C3F}">
             <xm:f>Sheet2!$B$2</xm:f>
             <xm:f>Sheet2!$B$3</xm:f>
             <x14:dxf>
@@ -35673,7 +35701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{6C7172EC-66E9-401A-BA5F-AB7848B22E23}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{6C7172EC-66E9-401A-BA5F-AB7848B22E23}">
             <xm:f>Sheet2!$E$3</xm:f>
             <x14:dxf>
               <fill>
@@ -35683,7 +35711,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A112:XFD1048576 A1:CW2 CX2:CZ40 DA2:XFD111 CX1:XFD1 A3:AO111 AP3:CW40 AP41:CZ111</xm:sqref>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -35745,6 +35773,12 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>

--- a/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
+++ b/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\月夜の鎮魂歌\MoonlitRequiem\開発環境\MoonlitRequiem\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4FC2C-2627-408B-8279-08F56AB377E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E0CD1A-F453-48FA-88A6-C4A3987809EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="5460" xr2:uid="{964291E5-3234-4E3D-A0D4-F3456EEF85F3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -93,10 +93,6 @@
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>z</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -495,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66AAB36-C14D-4C10-8A0F-D2B5A3308418}">
   <dimension ref="A1:DA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BD79" sqref="BD79"/>
+    <sheetView tabSelected="1" topLeftCell="BB53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CX85" sqref="CX85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1123,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CX2">
         <v>11</v>
@@ -8979,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BZ27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA27">
         <v>11</v>
@@ -9296,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="BZ28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA28">
         <v>11</v>
@@ -9613,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="BZ29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA29">
         <v>11</v>
@@ -9930,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="BZ30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA30">
         <v>11</v>
@@ -10247,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="BZ31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA31">
         <v>11</v>
@@ -10564,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="BZ32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA32">
         <v>11</v>
@@ -10881,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="BZ33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA33">
         <v>11</v>
@@ -11198,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BZ34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA34">
         <v>11</v>
@@ -11515,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="BZ35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA35">
         <v>11</v>
@@ -11832,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="BZ36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA36">
         <v>11</v>
@@ -11921,118 +11917,118 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN37">
         <v>11</v>
@@ -12149,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="BZ37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA37">
         <v>11</v>
@@ -12352,10 +12348,10 @@
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP38">
         <v>11</v>
@@ -12364,19 +12360,19 @@
         <v>11</v>
       </c>
       <c r="AR38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW38">
         <v>0</v>
@@ -12466,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BZ38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA38">
         <v>11</v>
@@ -12669,10 +12665,10 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP39">
         <v>11</v>
@@ -12681,19 +12677,19 @@
         <v>11</v>
       </c>
       <c r="AR39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW39">
         <v>0</v>
@@ -12783,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="BZ39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA39">
         <v>11</v>
@@ -12986,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP40">
         <v>11</v>
@@ -12998,19 +12994,19 @@
         <v>11</v>
       </c>
       <c r="AR40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -13100,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="BZ40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA40">
         <v>11</v>
@@ -13303,10 +13299,10 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP41">
         <v>11</v>
@@ -13315,19 +13311,19 @@
         <v>11</v>
       </c>
       <c r="AR41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -13417,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="BZ41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA41">
         <v>11</v>
@@ -13620,10 +13616,10 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP42">
         <v>11</v>
@@ -13632,19 +13628,19 @@
         <v>11</v>
       </c>
       <c r="AR42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW42">
         <v>0</v>
@@ -13734,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="BZ42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA42">
         <v>11</v>
@@ -13937,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP43">
         <v>11</v>
@@ -13949,19 +13945,19 @@
         <v>11</v>
       </c>
       <c r="AR43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW43">
         <v>0</v>
@@ -14051,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="BZ43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA43">
         <v>11</v>
@@ -14254,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP44">
         <v>11</v>
@@ -14266,19 +14262,19 @@
         <v>11</v>
       </c>
       <c r="AR44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW44">
         <v>0</v>
@@ -14368,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="BZ44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA44">
         <v>11</v>
@@ -14571,10 +14567,10 @@
         <v>0</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP45">
         <v>11</v>
@@ -14583,19 +14579,19 @@
         <v>11</v>
       </c>
       <c r="AR45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <v>0</v>
@@ -14685,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="BZ45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA45">
         <v>11</v>
@@ -14888,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP46">
         <v>11</v>
@@ -14900,19 +14896,19 @@
         <v>11</v>
       </c>
       <c r="AR46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW46">
         <v>0</v>
@@ -15002,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="BZ46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA46">
         <v>11</v>
@@ -15205,10 +15201,10 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP47">
         <v>11</v>
@@ -15217,19 +15213,19 @@
         <v>11</v>
       </c>
       <c r="AR47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -15319,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="BZ47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA47">
         <v>11</v>
@@ -15522,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP48">
         <v>11</v>
@@ -15534,19 +15530,19 @@
         <v>11</v>
       </c>
       <c r="AR48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -15636,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="BZ48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA48">
         <v>11</v>
@@ -15839,10 +15835,10 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP49">
         <v>11</v>
@@ -15851,19 +15847,19 @@
         <v>11</v>
       </c>
       <c r="AR49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW49">
         <v>0</v>
@@ -15953,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="BZ49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA49">
         <v>11</v>
@@ -16156,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP50">
         <v>11</v>
@@ -16168,19 +16164,19 @@
         <v>11</v>
       </c>
       <c r="AR50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW50">
         <v>0</v>
@@ -16270,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="BZ50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA50">
         <v>11</v>
@@ -16473,10 +16469,10 @@
         <v>0</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP51">
         <v>11</v>
@@ -16485,19 +16481,19 @@
         <v>11</v>
       </c>
       <c r="AR51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW51">
         <v>0</v>
@@ -16587,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="BZ51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA51">
         <v>11</v>
@@ -16790,10 +16786,10 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP52">
         <v>11</v>
@@ -16802,19 +16798,19 @@
         <v>11</v>
       </c>
       <c r="AR52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW52">
         <v>0</v>
@@ -16904,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="BZ52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA52">
         <v>11</v>
@@ -17107,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP53">
         <v>11</v>
@@ -17119,10 +17115,10 @@
         <v>11</v>
       </c>
       <c r="AR53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -17221,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="BZ53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA53">
         <v>11</v>
@@ -17424,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP54">
         <v>11</v>
@@ -17436,10 +17432,10 @@
         <v>11</v>
       </c>
       <c r="AR54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT54">
         <v>0</v>
@@ -17538,7 +17534,7 @@
         <v>0</v>
       </c>
       <c r="BZ54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA54">
         <v>11</v>
@@ -17741,10 +17737,10 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP55">
         <v>11</v>
@@ -17753,10 +17749,10 @@
         <v>11</v>
       </c>
       <c r="AR55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT55">
         <v>0</v>
@@ -17855,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="BZ55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA55">
         <v>11</v>
@@ -18058,10 +18054,10 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP56">
         <v>11</v>
@@ -18070,10 +18066,10 @@
         <v>11</v>
       </c>
       <c r="AR56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT56">
         <v>0</v>
@@ -18172,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="BZ56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA56">
         <v>11</v>
@@ -18375,10 +18371,10 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP57">
         <v>11</v>
@@ -18387,10 +18383,10 @@
         <v>11</v>
       </c>
       <c r="AR57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -18489,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="BZ57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA57">
         <v>11</v>
@@ -18692,10 +18688,10 @@
         <v>0</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP58">
         <v>11</v>
@@ -18704,10 +18700,10 @@
         <v>11</v>
       </c>
       <c r="AR58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -18806,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="BZ58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA58">
         <v>11</v>
@@ -19009,10 +19005,10 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP59">
         <v>11</v>
@@ -19021,10 +19017,10 @@
         <v>11</v>
       </c>
       <c r="AR59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -19123,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="BZ59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA59">
         <v>11</v>
@@ -19326,10 +19322,10 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP60">
         <v>11</v>
@@ -19338,10 +19334,10 @@
         <v>11</v>
       </c>
       <c r="AR60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT60">
         <v>0</v>
@@ -19440,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="BZ60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA60">
         <v>11</v>
@@ -19643,10 +19639,10 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP61">
         <v>11</v>
@@ -19655,10 +19651,10 @@
         <v>11</v>
       </c>
       <c r="AR61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -19757,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="BZ61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA61">
         <v>11</v>
@@ -19960,10 +19956,10 @@
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP62">
         <v>11</v>
@@ -19972,10 +19968,10 @@
         <v>11</v>
       </c>
       <c r="AR62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -20074,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="BZ62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA62">
         <v>11</v>
@@ -20277,10 +20273,10 @@
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP63">
         <v>11</v>
@@ -20289,10 +20285,10 @@
         <v>11</v>
       </c>
       <c r="AR63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT63">
         <v>0</v>
@@ -20391,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="BZ63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA63">
         <v>11</v>
@@ -20594,10 +20590,10 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP64">
         <v>11</v>
@@ -20606,10 +20602,10 @@
         <v>11</v>
       </c>
       <c r="AR64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT64">
         <v>0</v>
@@ -20708,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="BZ64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA64">
         <v>11</v>
@@ -20911,10 +20907,10 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP65">
         <v>11</v>
@@ -20923,10 +20919,10 @@
         <v>11</v>
       </c>
       <c r="AR65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT65">
         <v>0</v>
@@ -21025,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="BZ65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA65">
         <v>11</v>
@@ -21228,10 +21224,10 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP66">
         <v>11</v>
@@ -21240,10 +21236,10 @@
         <v>11</v>
       </c>
       <c r="AR66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT66">
         <v>0</v>
@@ -21342,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="BZ66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA66">
         <v>11</v>
@@ -21545,10 +21541,10 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP67">
         <v>11</v>
@@ -21557,10 +21553,10 @@
         <v>11</v>
       </c>
       <c r="AR67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT67">
         <v>0</v>
@@ -21659,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="BZ67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA67">
         <v>11</v>
@@ -21862,10 +21858,10 @@
         <v>0</v>
       </c>
       <c r="AN68">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO68">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP68">
         <v>11</v>
@@ -21874,10 +21870,10 @@
         <v>11</v>
       </c>
       <c r="AR68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT68">
         <v>0</v>
@@ -21976,7 +21972,7 @@
         <v>0</v>
       </c>
       <c r="BZ68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA68">
         <v>11</v>
@@ -22179,10 +22175,10 @@
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP69">
         <v>11</v>
@@ -22191,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="AR69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT69">
         <v>0</v>
@@ -22293,7 +22289,7 @@
         <v>0</v>
       </c>
       <c r="BZ69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA69">
         <v>11</v>
@@ -22496,10 +22492,10 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP70">
         <v>11</v>
@@ -22508,10 +22504,10 @@
         <v>11</v>
       </c>
       <c r="AR70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT70">
         <v>0</v>
@@ -22610,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="BZ70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA70">
         <v>11</v>
@@ -22813,10 +22809,10 @@
         <v>0</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP71">
         <v>11</v>
@@ -22825,10 +22821,10 @@
         <v>11</v>
       </c>
       <c r="AR71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT71">
         <v>0</v>
@@ -22927,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="BZ71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA71">
         <v>11</v>
@@ -23130,10 +23126,10 @@
         <v>0</v>
       </c>
       <c r="AN72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP72">
         <v>11</v>
@@ -23142,10 +23138,10 @@
         <v>11</v>
       </c>
       <c r="AR72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -23244,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="BZ72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA72">
         <v>11</v>
@@ -23447,10 +23443,10 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP73">
         <v>11</v>
@@ -23459,10 +23455,10 @@
         <v>11</v>
       </c>
       <c r="AR73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -23561,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="BZ73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA73">
         <v>11</v>
@@ -23764,10 +23760,10 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP74">
         <v>11</v>
@@ -23776,10 +23772,10 @@
         <v>11</v>
       </c>
       <c r="AR74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT74">
         <v>0</v>
@@ -23878,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="BZ74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA74">
         <v>11</v>
@@ -24081,10 +24077,10 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO75">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP75">
         <v>11</v>
@@ -24093,10 +24089,10 @@
         <v>11</v>
       </c>
       <c r="AR75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -24398,10 +24394,10 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP76">
         <v>11</v>
@@ -24410,10 +24406,10 @@
         <v>11</v>
       </c>
       <c r="AR76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT76">
         <v>0</v>
@@ -24715,10 +24711,10 @@
         <v>0</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP77">
         <v>11</v>
@@ -24727,10 +24723,10 @@
         <v>11</v>
       </c>
       <c r="AR77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT77">
         <v>0</v>
@@ -25032,10 +25028,10 @@
         <v>0</v>
       </c>
       <c r="AN78">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP78">
         <v>11</v>
@@ -25044,10 +25040,10 @@
         <v>11</v>
       </c>
       <c r="AR78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT78">
         <v>0</v>
@@ -25083,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="BE78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF78">
         <v>0</v>
@@ -25092,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="BH78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI78">
         <v>0</v>
@@ -25349,10 +25345,10 @@
         <v>0</v>
       </c>
       <c r="AN79">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP79">
         <v>11</v>
@@ -25486,8 +25482,8 @@
       <c r="CG79">
         <v>11</v>
       </c>
-      <c r="CH79" t="s">
-        <v>16</v>
+      <c r="CH79">
+        <v>11</v>
       </c>
       <c r="CI79">
         <v>11</v>
@@ -25666,10 +25662,10 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO80">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP80">
         <v>11</v>
@@ -25989,193 +25985,193 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BA81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BD81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BE81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BF81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BG81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BH81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BI81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BJ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BK81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BL81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BM81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BN81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BO81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BP81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BQ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BR81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BS81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BT81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BU81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BV81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BW81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BX81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BY81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BZ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CB81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CC81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CD81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CE81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CF81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CG81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CH81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CI81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CJ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CK81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CL81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CM81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CN81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CO81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CP81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CQ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CR81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CS81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CT81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CU81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CV81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CW81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CX81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CY81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CZ81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA81">
         <v>0</v>
@@ -26306,16 +26302,16 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT82">
         <v>0</v>
@@ -26492,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="CZ82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA82">
         <v>0</v>
@@ -26623,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT83">
         <v>0</v>
@@ -26809,7 +26805,7 @@
         <v>0</v>
       </c>
       <c r="CZ83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA83">
         <v>0</v>
@@ -26940,16 +26936,16 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT84">
         <v>0</v>
@@ -27126,7 +27122,7 @@
         <v>0</v>
       </c>
       <c r="CZ84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA84">
         <v>0</v>
@@ -27257,16 +27253,16 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT85">
         <v>0</v>
@@ -27443,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="CZ85">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA85">
         <v>0</v>
@@ -27574,16 +27570,16 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT86">
         <v>0</v>
@@ -27760,7 +27756,7 @@
         <v>0</v>
       </c>
       <c r="CZ86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA86">
         <v>0</v>
@@ -27891,16 +27887,16 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT87">
         <v>0</v>
@@ -28077,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="CZ87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA87">
         <v>0</v>
@@ -28208,16 +28204,16 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT88">
         <v>0</v>
@@ -28394,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="CZ88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA88">
         <v>0</v>
@@ -28525,16 +28521,16 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT89">
         <v>0</v>
@@ -28711,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="CZ89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA89">
         <v>0</v>
@@ -28842,16 +28838,16 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT90">
         <v>0</v>
@@ -29028,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="CZ90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA90">
         <v>0</v>
@@ -29159,16 +29155,16 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT91">
         <v>0</v>
@@ -29345,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="CZ91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA91">
         <v>0</v>
@@ -29476,16 +29472,16 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT92">
         <v>0</v>
@@ -29662,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="CZ92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA92">
         <v>0</v>
@@ -29793,16 +29789,16 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT93">
         <v>0</v>
@@ -29979,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="CZ93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA93">
         <v>0</v>
@@ -30110,16 +30106,16 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT94">
         <v>0</v>
@@ -30296,7 +30292,7 @@
         <v>0</v>
       </c>
       <c r="CZ94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA94">
         <v>0</v>
@@ -30427,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT95">
         <v>0</v>
@@ -30613,7 +30609,7 @@
         <v>0</v>
       </c>
       <c r="CZ95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA95">
         <v>0</v>
@@ -30744,16 +30740,16 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT96">
         <v>0</v>
@@ -30930,7 +30926,7 @@
         <v>0</v>
       </c>
       <c r="CZ96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA96">
         <v>0</v>
@@ -31061,16 +31057,16 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT97">
         <v>0</v>
@@ -31247,7 +31243,7 @@
         <v>0</v>
       </c>
       <c r="CZ97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA97">
         <v>0</v>
@@ -31378,16 +31374,16 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT98">
         <v>0</v>
@@ -31564,7 +31560,7 @@
         <v>0</v>
       </c>
       <c r="CZ98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA98">
         <v>0</v>
@@ -31695,16 +31691,16 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT99">
         <v>0</v>
@@ -31881,7 +31877,7 @@
         <v>0</v>
       </c>
       <c r="CZ99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA99">
         <v>0</v>
@@ -32012,16 +32008,16 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT100">
         <v>0</v>
@@ -32198,7 +32194,7 @@
         <v>0</v>
       </c>
       <c r="CZ100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA100">
         <v>0</v>
@@ -32329,16 +32325,16 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT101">
         <v>0</v>
@@ -32515,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="CZ101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA101">
         <v>0</v>
@@ -32643,16 +32639,16 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT102">
         <v>0</v>
@@ -32829,7 +32825,7 @@
         <v>0</v>
       </c>
       <c r="CZ102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA102">
         <v>0</v>
@@ -32957,16 +32953,16 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT103">
         <v>0</v>
@@ -33143,7 +33139,7 @@
         <v>0</v>
       </c>
       <c r="CZ103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA103">
         <v>0</v>
@@ -33271,16 +33267,16 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ104">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR104">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS104">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT104">
         <v>0</v>
@@ -33457,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="CZ104">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA104">
         <v>0</v>
@@ -33585,16 +33581,16 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT105">
         <v>0</v>
@@ -33771,7 +33767,7 @@
         <v>0</v>
       </c>
       <c r="CZ105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA105">
         <v>0</v>
@@ -33899,16 +33895,16 @@
         <v>0</v>
       </c>
       <c r="AP106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT106">
         <v>0</v>
@@ -34085,7 +34081,7 @@
         <v>0</v>
       </c>
       <c r="CZ106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA106">
         <v>0</v>
@@ -34213,16 +34209,16 @@
         <v>0</v>
       </c>
       <c r="AP107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT107">
         <v>0</v>
@@ -34399,7 +34395,7 @@
         <v>0</v>
       </c>
       <c r="CZ107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA107">
         <v>0</v>
@@ -34527,16 +34523,16 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT108">
         <v>0</v>
@@ -34713,7 +34709,7 @@
         <v>0</v>
       </c>
       <c r="CZ108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA108">
         <v>0</v>
@@ -34841,16 +34837,16 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT109">
         <v>0</v>
@@ -35027,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="CZ109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA109">
         <v>0</v>
@@ -35155,193 +35151,193 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AV110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BA110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BB110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BD110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BE110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BF110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BG110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BH110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BI110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BJ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BK110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BL110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BM110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BN110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BO110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BP110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BQ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BR110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BS110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BT110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BU110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BV110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BW110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BX110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BY110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BZ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CA110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CB110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CC110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CD110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CE110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CF110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CG110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CH110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CI110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CJ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CK110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CL110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CM110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CN110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CO110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CP110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CQ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CR110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CS110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CT110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CU110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CV110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CW110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CX110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CY110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CZ110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA110">
         <v>0</v>
@@ -35721,15 +35717,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CC388E-5A14-48AC-B056-9A7BB1FE8F06}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -35740,7 +35736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -35753,8 +35749,12 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="G2">
+        <f>COUNTIF(Map!A1:DA111,11)</f>
+        <v>1651</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>2</v>
@@ -35766,7 +35766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -35780,13 +35780,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -35794,13 +35794,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -35808,13 +35808,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -35822,13 +35822,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -35836,13 +35836,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -35850,13 +35850,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>

--- a/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
+++ b/開発環境/MoonlitRequiem/data/MAP/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\月夜の鎮魂歌\MoonlitRequiem\開発環境\MoonlitRequiem\data\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E0CD1A-F453-48FA-88A6-C4A3987809EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146604E7-5F30-49B3-AFE2-95B1F8534358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15288" windowHeight="5460" xr2:uid="{964291E5-3234-4E3D-A0D4-F3456EEF85F3}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66AAB36-C14D-4C10-8A0F-D2B5A3308418}">
   <dimension ref="A1:DA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CX85" sqref="CX85"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CC19" sqref="CC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="CZ2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="CZ3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA3">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="CZ4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA4">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="CZ5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA5">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="CZ6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA6">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="CZ7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA7">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="CZ8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA8">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="CZ9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA9">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="CZ10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA10">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="CZ11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA11">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="BX12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BY12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA12">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="CZ12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA12">
         <v>0</v>
@@ -4528,16 +4528,16 @@
         <v>0</v>
       </c>
       <c r="BW13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BX13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BY13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="CZ13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA13">
         <v>0</v>
@@ -4638,49 +4638,49 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -4851,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="BY14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA14">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>11</v>
       </c>
       <c r="CZ14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA14">
         <v>0</v>
@@ -5168,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="BY15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA15">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>11</v>
       </c>
       <c r="CZ15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA15">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="BY16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA16">
         <v>0</v>
@@ -5566,7 +5566,7 @@
         <v>11</v>
       </c>
       <c r="CZ16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA16">
         <v>0</v>
@@ -5802,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="BY17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA17">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>11</v>
       </c>
       <c r="CZ17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA17">
         <v>0</v>
@@ -6119,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="BY18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>11</v>
       </c>
       <c r="CZ18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA18">
         <v>0</v>
@@ -6436,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="BY19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA19">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="CZ19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA19">
         <v>0</v>
@@ -6753,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="BY20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BZ20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA20">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>11</v>
       </c>
       <c r="CZ20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA20">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>11</v>
       </c>
       <c r="BZ21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CA21">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>11</v>
       </c>
       <c r="CZ21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA21">
         <v>0</v>
@@ -7468,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="CZ22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA22">
         <v>0</v>
@@ -7785,7 +7785,7 @@
         <v>11</v>
       </c>
       <c r="CZ23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA23">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>11</v>
       </c>
       <c r="CZ24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA24">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>11</v>
       </c>
       <c r="CZ25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA25">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="CZ26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA26">
         <v>0</v>
@@ -9053,7 +9053,7 @@
         <v>11</v>
       </c>
       <c r="CZ27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA27">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="CZ28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA28">
         <v>0</v>
@@ -9687,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="CZ29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA29">
         <v>0</v>
@@ -9824,13 +9824,13 @@
         <v>11</v>
       </c>
       <c r="AR30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>11</v>
@@ -10004,7 +10004,7 @@
         <v>11</v>
       </c>
       <c r="CZ30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA30">
         <v>0</v>
@@ -10141,13 +10141,13 @@
         <v>11</v>
       </c>
       <c r="AR31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>11</v>
@@ -10321,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="CZ31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA31">
         <v>0</v>
@@ -10458,13 +10458,13 @@
         <v>11</v>
       </c>
       <c r="AR32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU32">
         <v>11</v>
@@ -10638,7 +10638,7 @@
         <v>11</v>
       </c>
       <c r="CZ32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA32">
         <v>0</v>
@@ -10775,13 +10775,13 @@
         <v>11</v>
       </c>
       <c r="AR33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU33">
         <v>11</v>
@@ -10955,7 +10955,7 @@
         <v>11</v>
       </c>
       <c r="CZ33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA33">
         <v>0</v>
@@ -11092,13 +11092,13 @@
         <v>11</v>
       </c>
       <c r="AR34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU34">
         <v>11</v>
@@ -11272,7 +11272,7 @@
         <v>11</v>
       </c>
       <c r="CZ34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA34">
         <v>0</v>
@@ -11283,124 +11283,124 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>11</v>
@@ -11409,13 +11409,13 @@
         <v>11</v>
       </c>
       <c r="AR35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU35">
         <v>11</v>
@@ -11589,7 +11589,7 @@
         <v>11</v>
       </c>
       <c r="CZ35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA35">
         <v>0</v>
@@ -11600,124 +11600,124 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>11</v>
@@ -11906,7 +11906,7 @@
         <v>11</v>
       </c>
       <c r="CZ36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA36">
         <v>0</v>
@@ -12031,10 +12031,10 @@
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>11</v>
@@ -12223,7 +12223,7 @@
         <v>11</v>
       </c>
       <c r="CZ37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA37">
         <v>0</v>
@@ -12348,10 +12348,10 @@
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP38">
         <v>11</v>
@@ -12540,7 +12540,7 @@
         <v>11</v>
       </c>
       <c r="CZ38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA38">
         <v>0</v>
@@ -12665,10 +12665,10 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>11</v>
@@ -12857,7 +12857,7 @@
         <v>11</v>
       </c>
       <c r="CZ39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA39">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP40">
         <v>11</v>
@@ -13174,7 +13174,7 @@
         <v>11</v>
       </c>
       <c r="CZ40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA40">
         <v>0</v>
@@ -13299,10 +13299,10 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>11</v>
@@ -13491,7 +13491,7 @@
         <v>11</v>
       </c>
       <c r="CZ41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA41">
         <v>0</v>
@@ -13616,10 +13616,10 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>11</v>
@@ -13808,7 +13808,7 @@
         <v>11</v>
       </c>
       <c r="CZ42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA42">
         <v>0</v>
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="AN43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP43">
         <v>11</v>
@@ -14125,7 +14125,7 @@
         <v>11</v>
       </c>
       <c r="CZ43">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA43">
         <v>0</v>
@@ -14250,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="AN44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP44">
         <v>11</v>
@@ -14442,7 +14442,7 @@
         <v>11</v>
       </c>
       <c r="CZ44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA44">
         <v>0</v>
@@ -14567,10 +14567,10 @@
         <v>0</v>
       </c>
       <c r="AN45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <v>11</v>
@@ -14759,7 +14759,7 @@
         <v>11</v>
       </c>
       <c r="CZ45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA45">
         <v>0</v>
@@ -14884,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>11</v>
@@ -15076,7 +15076,7 @@
         <v>11</v>
       </c>
       <c r="CZ46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA46">
         <v>0</v>
@@ -15201,10 +15201,10 @@
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP47">
         <v>11</v>
@@ -15393,7 +15393,7 @@
         <v>11</v>
       </c>
       <c r="CZ47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA47">
         <v>0</v>
@@ -15518,10 +15518,10 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP48">
         <v>11</v>
@@ -15710,7 +15710,7 @@
         <v>11</v>
       </c>
       <c r="CZ48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA48">
         <v>0</v>
@@ -15835,10 +15835,10 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP49">
         <v>11</v>
@@ -16027,7 +16027,7 @@
         <v>11</v>
       </c>
       <c r="CZ49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA49">
         <v>0</v>
@@ -16152,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP50">
         <v>11</v>
@@ -16344,7 +16344,7 @@
         <v>11</v>
       </c>
       <c r="CZ50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA50">
         <v>0</v>
@@ -16469,10 +16469,10 @@
         <v>0</v>
       </c>
       <c r="AN51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP51">
         <v>11</v>
@@ -16661,7 +16661,7 @@
         <v>11</v>
       </c>
       <c r="CZ51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA51">
         <v>0</v>
@@ -16786,10 +16786,10 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP52">
         <v>11</v>
@@ -16978,7 +16978,7 @@
         <v>11</v>
       </c>
       <c r="CZ52">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA52">
         <v>0</v>
@@ -17103,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP53">
         <v>11</v>
@@ -17295,7 +17295,7 @@
         <v>11</v>
       </c>
       <c r="CZ53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA53">
         <v>0</v>
@@ -17420,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="AN54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP54">
         <v>11</v>
@@ -17612,7 +17612,7 @@
         <v>11</v>
       </c>
       <c r="CZ54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA54">
         <v>0</v>
@@ -17737,10 +17737,10 @@
         <v>0</v>
       </c>
       <c r="AN55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP55">
         <v>11</v>
@@ -17929,7 +17929,7 @@
         <v>11</v>
       </c>
       <c r="CZ55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA55">
         <v>0</v>
@@ -18054,10 +18054,10 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP56">
         <v>11</v>
@@ -18246,7 +18246,7 @@
         <v>11</v>
       </c>
       <c r="CZ56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA56">
         <v>0</v>
@@ -18371,10 +18371,10 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP57">
         <v>11</v>
@@ -18563,7 +18563,7 @@
         <v>11</v>
       </c>
       <c r="CZ57">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA57">
         <v>0</v>
@@ -18688,10 +18688,10 @@
         <v>0</v>
       </c>
       <c r="AN58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP58">
         <v>11</v>
@@ -18880,7 +18880,7 @@
         <v>11</v>
       </c>
       <c r="CZ58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA58">
         <v>0</v>
@@ -19005,10 +19005,10 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP59">
         <v>11</v>
@@ -19197,7 +19197,7 @@
         <v>11</v>
       </c>
       <c r="CZ59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA59">
         <v>0</v>
@@ -19322,10 +19322,10 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP60">
         <v>11</v>
@@ -19514,7 +19514,7 @@
         <v>11</v>
       </c>
       <c r="CZ60">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA60">
         <v>0</v>
@@ -19639,10 +19639,10 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP61">
         <v>11</v>
@@ -19831,7 +19831,7 @@
         <v>11</v>
       </c>
       <c r="CZ61">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA61">
         <v>0</v>
@@ -19956,10 +19956,10 @@
         <v>0</v>
       </c>
       <c r="AN62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP62">
         <v>11</v>
@@ -20148,7 +20148,7 @@
         <v>11</v>
       </c>
       <c r="CZ62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA62">
         <v>0</v>
@@ -20273,10 +20273,10 @@
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP63">
         <v>11</v>
@@ -20465,7 +20465,7 @@
         <v>11</v>
       </c>
       <c r="CZ63">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA63">
         <v>0</v>
@@ -20590,10 +20590,10 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP64">
         <v>11</v>
@@ -20782,7 +20782,7 @@
         <v>11</v>
       </c>
       <c r="CZ64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA64">
         <v>0</v>
@@ -20907,10 +20907,10 @@
         <v>0</v>
       </c>
       <c r="AN65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP65">
         <v>11</v>
@@ -21099,7 +21099,7 @@
         <v>11</v>
       </c>
       <c r="CZ65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA65">
         <v>0</v>
@@ -21224,10 +21224,10 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP66">
         <v>11</v>
@@ -21416,7 +21416,7 @@
         <v>11</v>
       </c>
       <c r="CZ66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA66">
         <v>0</v>
@@ -21541,10 +21541,10 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP67">
         <v>11</v>
@@ -21733,7 +21733,7 @@
         <v>11</v>
       </c>
       <c r="CZ67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA67">
         <v>0</v>
@@ -21858,10 +21858,10 @@
         <v>0</v>
       </c>
       <c r="AN68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP68">
         <v>11</v>
@@ -22050,7 +22050,7 @@
         <v>11</v>
       </c>
       <c r="CZ68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA68">
         <v>0</v>
@@ -22175,10 +22175,10 @@
         <v>0</v>
       </c>
       <c r="AN69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP69">
         <v>11</v>
@@ -22367,7 +22367,7 @@
         <v>11</v>
       </c>
       <c r="CZ69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA69">
         <v>0</v>
@@ -22492,10 +22492,10 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP70">
         <v>11</v>
@@ -22684,7 +22684,7 @@
         <v>11</v>
       </c>
       <c r="CZ70">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA70">
         <v>0</v>
@@ -22809,10 +22809,10 @@
         <v>0</v>
       </c>
       <c r="AN71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP71">
         <v>11</v>
@@ -23001,7 +23001,7 @@
         <v>11</v>
       </c>
       <c r="CZ71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA71">
         <v>0</v>
@@ -23126,10 +23126,10 @@
         <v>0</v>
       </c>
       <c r="AN72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP72">
         <v>11</v>
@@ -23318,7 +23318,7 @@
         <v>11</v>
       </c>
       <c r="CZ72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA72">
         <v>0</v>
@@ -23443,10 +23443,10 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP73">
         <v>11</v>
@@ -23635,7 +23635,7 @@
         <v>11</v>
       </c>
       <c r="CZ73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA73">
         <v>0</v>
@@ -23760,10 +23760,10 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP74">
         <v>11</v>
@@ -23952,7 +23952,7 @@
         <v>11</v>
       </c>
       <c r="CZ74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA74">
         <v>0</v>
@@ -24077,10 +24077,10 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP75">
         <v>11</v>
@@ -24269,7 +24269,7 @@
         <v>11</v>
       </c>
       <c r="CZ75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA75">
         <v>0</v>
@@ -24394,10 +24394,10 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP76">
         <v>11</v>
@@ -24586,7 +24586,7 @@
         <v>11</v>
       </c>
       <c r="CZ76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA76">
         <v>0</v>
@@ -24711,10 +24711,10 @@
         <v>0</v>
       </c>
       <c r="AN77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP77">
         <v>11</v>
@@ -24903,7 +24903,7 @@
         <v>11</v>
       </c>
       <c r="CZ77">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA77">
         <v>0</v>
@@ -25028,10 +25028,10 @@
         <v>0</v>
       </c>
       <c r="AN78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP78">
         <v>11</v>
@@ -25220,7 +25220,7 @@
         <v>11</v>
       </c>
       <c r="CZ78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA78">
         <v>0</v>
@@ -25345,10 +25345,10 @@
         <v>0</v>
       </c>
       <c r="AN79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP79">
         <v>11</v>
@@ -25537,7 +25537,7 @@
         <v>11</v>
       </c>
       <c r="CZ79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA79">
         <v>0</v>
@@ -25662,10 +25662,10 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP80">
         <v>11</v>
@@ -25854,7 +25854,7 @@
         <v>11</v>
       </c>
       <c r="CZ80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DA80">
         <v>0</v>
@@ -35751,7 +35751,7 @@
       </c>
       <c r="G2">
         <f>COUNTIF(Map!A1:DA111,11)</f>
-        <v>1651</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
